--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 0 (30, 11, 3, 38, 29)/MDD 1 (43, 3, 19, 7, 1)/ANN_128nodes_Uniform0.05Virtual_Control(30, 11, 3, 38, 29)_MDD(43, 3, 19, 7, 1)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 0 (30, 11, 3, 38, 29)/MDD 1 (43, 3, 19, 7, 1)/ANN_128nodes_Uniform0.05Virtual_Control(30, 11, 3, 38, 29)_MDD(43, 3, 19, 7, 1)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>0.01179433493717364</v>
+        <v>0.0175080232964091</v>
       </c>
       <c r="E2">
-        <v>0.01179433493717364</v>
+        <v>0.0175080232964091</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -467,13 +467,13 @@
         <v>7</v>
       </c>
       <c r="C3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>0.9667074004868029</v>
+        <v>0.4961939058923746</v>
       </c>
       <c r="E3">
-        <v>0.9667074004868029</v>
+        <v>0.4961939058923746</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>1</v>
       </c>
       <c r="D4">
-        <v>2.809446060526935E-16</v>
+        <v>6.588574986123243E-20</v>
       </c>
       <c r="E4">
-        <v>2.809446060526935E-16</v>
+        <v>6.588574986123243E-20</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.9908654155815796</v>
+        <v>0.9980899070973831</v>
       </c>
       <c r="E5">
-        <v>0.9908654155815796</v>
+        <v>0.9980899070973831</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.993275935560054</v>
+        <v>0.9929272482003404</v>
       </c>
       <c r="E6">
-        <v>0.993275935560054</v>
+        <v>0.9929272482003404</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>0.9999999999999996</v>
+        <v>1</v>
       </c>
       <c r="E7">
-        <v>4.440892098500626E-16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.04985529270482419</v>
+        <v>0.1140219934002382</v>
       </c>
       <c r="E8">
-        <v>0.9501447072951759</v>
+        <v>0.8859780065997618</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.998865265602027</v>
+        <v>0.9998026330750298</v>
       </c>
       <c r="E9">
-        <v>0.001134734397972958</v>
+        <v>0.0001973669249701882</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -582,16 +582,16 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>5.945747532340544E-05</v>
+        <v>0.2925247891852543</v>
       </c>
       <c r="E11">
-        <v>0.9999405425246766</v>
+        <v>0.7074752108147457</v>
       </c>
       <c r="F11">
-        <v>2.584205150604248</v>
+        <v>1.531610131263733</v>
       </c>
       <c r="G11">
-        <v>0.5</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
